--- a/Experiment/sequences/localiser_conditions_06.xlsx
+++ b/Experiment/sequences/localiser_conditions_06.xlsx
@@ -496,7 +496,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -532,7 +532,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -568,7 +568,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -604,7 +604,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -640,7 +640,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -676,7 +676,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -712,7 +712,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -748,7 +748,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -784,7 +784,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -820,7 +820,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -856,7 +856,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -892,7 +892,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -928,7 +928,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -964,7 +964,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -1684,7 +1684,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -1900,7 +1900,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -1936,7 +1936,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -2080,7 +2080,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -2188,7 +2188,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -2404,7 +2404,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -2620,7 +2620,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -2692,7 +2692,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -2800,7 +2800,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -2836,7 +2836,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -2908,7 +2908,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -2944,7 +2944,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -2980,7 +2980,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -3052,7 +3052,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -3088,7 +3088,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -3124,7 +3124,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -3232,7 +3232,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -3412,7 +3412,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -3520,7 +3520,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -3556,7 +3556,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -3664,7 +3664,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -3700,7 +3700,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -3808,7 +3808,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -3844,7 +3844,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -3952,7 +3952,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -3988,7 +3988,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -4060,7 +4060,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -4132,7 +4132,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -4204,7 +4204,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -4240,7 +4240,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -4276,7 +4276,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F108" t="n">
@@ -4348,7 +4348,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -4384,7 +4384,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -4420,7 +4420,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -4492,7 +4492,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -4528,7 +4528,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -4636,7 +4636,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -4672,7 +4672,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -4708,7 +4708,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F119" t="n">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F120" t="n">
@@ -4780,7 +4780,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -4816,7 +4816,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -4852,7 +4852,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -4924,7 +4924,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -4960,7 +4960,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -4996,7 +4996,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F127" t="n">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -5068,7 +5068,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -5104,7 +5104,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -5140,7 +5140,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -5212,7 +5212,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -5248,7 +5248,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -5284,7 +5284,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F137" t="n">
@@ -5392,7 +5392,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F138" t="n">
@@ -5428,7 +5428,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F139" t="n">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F140" t="n">
@@ -5500,7 +5500,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F141" t="n">
@@ -5536,7 +5536,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F142" t="n">
@@ -5572,7 +5572,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F143" t="n">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F144" t="n">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F145" t="n">
@@ -5680,7 +5680,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F146" t="n">
@@ -5716,7 +5716,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F147" t="n">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F148" t="n">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F149" t="n">
@@ -5824,7 +5824,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F150" t="n">
@@ -5860,7 +5860,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F151" t="n">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F152" t="n">
@@ -5932,7 +5932,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F153" t="n">
@@ -5968,7 +5968,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F154" t="n">
@@ -6004,7 +6004,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F155" t="n">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F156" t="n">
@@ -6076,7 +6076,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F157" t="n">
@@ -6112,7 +6112,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F158" t="n">
@@ -6148,7 +6148,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F159" t="n">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -6220,7 +6220,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F161" t="n">
@@ -6256,7 +6256,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F162" t="n">
@@ -6292,7 +6292,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F163" t="n">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F164" t="n">
@@ -6364,7 +6364,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F165" t="n">
@@ -6400,7 +6400,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -6436,7 +6436,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F167" t="n">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F168" t="n">
@@ -6508,7 +6508,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -6544,7 +6544,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -6580,7 +6580,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F171" t="n">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F172" t="n">
@@ -6652,7 +6652,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F173" t="n">
@@ -6688,7 +6688,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F174" t="n">
@@ -6724,7 +6724,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F175" t="n">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F176" t="n">
@@ -6796,7 +6796,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F177" t="n">
@@ -6832,7 +6832,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F178" t="n">
@@ -6868,7 +6868,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F179" t="n">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F180" t="n">
@@ -6940,7 +6940,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F181" t="n">
@@ -6976,7 +6976,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F182" t="n">
@@ -7012,7 +7012,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F183" t="n">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F184" t="n">
@@ -7084,7 +7084,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F185" t="n">
@@ -7120,7 +7120,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F186" t="n">
@@ -7156,7 +7156,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F187" t="n">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F188" t="n">
@@ -7228,7 +7228,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -7264,7 +7264,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -7300,7 +7300,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F191" t="n">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F192" t="n">
@@ -7372,7 +7372,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F193" t="n">
@@ -7408,7 +7408,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F194" t="n">
@@ -7444,7 +7444,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F195" t="n">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F196" t="n">
@@ -7516,7 +7516,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F197" t="n">
@@ -7552,7 +7552,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F198" t="n">
@@ -7588,7 +7588,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F199" t="n">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F200" t="n">
@@ -7660,7 +7660,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F201" t="n">
@@ -7696,7 +7696,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F202" t="n">
@@ -7732,7 +7732,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F203" t="n">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F204" t="n">
@@ -7804,7 +7804,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F205" t="n">
@@ -7840,7 +7840,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -7876,7 +7876,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F208" t="n">
@@ -7948,7 +7948,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F209" t="n">
@@ -7984,7 +7984,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F210" t="n">
@@ -8020,7 +8020,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F211" t="n">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F212" t="n">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F213" t="n">
@@ -8128,7 +8128,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F214" t="n">
@@ -8164,7 +8164,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F215" t="n">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F216" t="n">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F217" t="n">
@@ -8272,7 +8272,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F218" t="n">
@@ -8308,7 +8308,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F219" t="n">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F220" t="n">
@@ -8380,7 +8380,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F221" t="n">
@@ -8416,7 +8416,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F222" t="n">
@@ -8452,7 +8452,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F223" t="n">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F224" t="n">
@@ -8524,7 +8524,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F225" t="n">
@@ -8560,7 +8560,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F226" t="n">
@@ -8596,7 +8596,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F227" t="n">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F228" t="n">
@@ -8668,7 +8668,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F229" t="n">
@@ -8704,7 +8704,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -8740,7 +8740,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F232" t="n">
@@ -8812,7 +8812,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F233" t="n">
@@ -8848,7 +8848,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F234" t="n">
@@ -8884,7 +8884,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F235" t="n">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F236" t="n">
@@ -8956,7 +8956,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F237" t="n">
@@ -8992,7 +8992,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F238" t="n">
@@ -9028,7 +9028,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F239" t="n">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F240" t="n">
@@ -9100,7 +9100,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F241" t="n">
@@ -9136,7 +9136,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F242" t="n">
@@ -9172,7 +9172,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F243" t="n">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F244" t="n">
@@ -9244,7 +9244,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F245" t="n">
@@ -9280,7 +9280,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F246" t="n">
@@ -9316,7 +9316,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F247" t="n">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F248" t="n">
@@ -9388,7 +9388,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F249" t="n">
@@ -9424,7 +9424,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F250" t="n">
@@ -9460,7 +9460,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F251" t="n">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F252" t="n">
@@ -9532,7 +9532,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F253" t="n">
@@ -9568,7 +9568,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F254" t="n">
@@ -9604,7 +9604,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F255" t="n">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F256" t="n">
@@ -9676,7 +9676,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F257" t="n">
@@ -9712,7 +9712,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F258" t="n">
@@ -9748,7 +9748,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F259" t="n">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F260" t="n">
@@ -9820,7 +9820,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F261" t="n">
@@ -9856,7 +9856,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F262" t="n">
@@ -9892,7 +9892,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F263" t="n">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F264" t="n">
@@ -9964,7 +9964,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F265" t="n">
@@ -10000,7 +10000,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F266" t="n">
@@ -10036,7 +10036,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F267" t="n">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F268" t="n">
@@ -10108,7 +10108,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F269" t="n">
@@ -10144,7 +10144,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F270" t="n">
@@ -10180,7 +10180,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F271" t="n">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F272" t="n">
@@ -10252,7 +10252,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F273" t="n">
@@ -10288,7 +10288,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F274" t="n">
@@ -10324,7 +10324,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F275" t="n">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F276" t="n">
@@ -10396,7 +10396,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F277" t="n">
@@ -10432,7 +10432,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F278" t="n">
@@ -10468,7 +10468,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F279" t="n">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F280" t="n">
@@ -10540,7 +10540,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F281" t="n">
@@ -10576,7 +10576,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F282" t="n">
@@ -10612,7 +10612,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F283" t="n">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F284" t="n">
@@ -10684,7 +10684,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F285" t="n">
@@ -10720,7 +10720,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F286" t="n">
@@ -10756,7 +10756,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F287" t="n">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F288" t="n">
@@ -10828,7 +10828,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F289" t="n">
@@ -10864,7 +10864,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F290" t="n">
@@ -10900,7 +10900,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F291" t="n">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F292" t="n">
@@ -10972,7 +10972,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F293" t="n">
@@ -11008,7 +11008,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F294" t="n">
@@ -11044,7 +11044,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F295" t="n">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F296" t="n">
@@ -11116,7 +11116,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F297" t="n">
@@ -11152,7 +11152,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F298" t="n">
@@ -11188,7 +11188,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F299" t="n">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F300" t="n">
@@ -11260,7 +11260,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F301" t="n">
@@ -11296,7 +11296,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F302" t="n">
@@ -11332,7 +11332,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F303" t="n">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F304" t="n">
@@ -11404,7 +11404,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F305" t="n">
@@ -11440,7 +11440,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F306" t="n">
@@ -11476,7 +11476,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F307" t="n">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F308" t="n">
@@ -11548,7 +11548,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F309" t="n">
@@ -11584,7 +11584,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F310" t="n">
@@ -11620,7 +11620,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F311" t="n">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F312" t="n">
@@ -11692,7 +11692,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F313" t="n">
@@ -11728,7 +11728,7 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F314" t="n">
@@ -11764,7 +11764,7 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F315" t="n">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F316" t="n">
@@ -11836,7 +11836,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F317" t="n">
@@ -11872,7 +11872,7 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F318" t="n">
@@ -11908,7 +11908,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F319" t="n">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F320" t="n">
@@ -11980,7 +11980,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F321" t="n">
@@ -12016,7 +12016,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F322" t="n">
@@ -12052,7 +12052,7 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F323" t="n">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F324" t="n">
@@ -12124,7 +12124,7 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F325" t="n">
@@ -12160,7 +12160,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F326" t="n">
@@ -12196,7 +12196,7 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F327" t="n">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F328" t="n">
@@ -12268,7 +12268,7 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F329" t="n">
@@ -12304,7 +12304,7 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F330" t="n">
@@ -12340,7 +12340,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F331" t="n">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F332" t="n">
@@ -12412,7 +12412,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F333" t="n">
@@ -12448,7 +12448,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F334" t="n">
@@ -12484,7 +12484,7 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F335" t="n">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F336" t="n">
@@ -12556,7 +12556,7 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F337" t="n">
@@ -12592,7 +12592,7 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F338" t="n">
@@ -12628,7 +12628,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F339" t="n">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F340" t="n">
@@ -12700,7 +12700,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F341" t="n">
@@ -12736,7 +12736,7 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F342" t="n">
@@ -12772,7 +12772,7 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F343" t="n">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F344" t="n">
@@ -12844,7 +12844,7 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F345" t="n">
@@ -12880,7 +12880,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F346" t="n">
@@ -12916,7 +12916,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F347" t="n">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F348" t="n">
@@ -12988,7 +12988,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F349" t="n">
@@ -13024,7 +13024,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F350" t="n">
@@ -13060,7 +13060,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F351" t="n">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F352" t="n">
@@ -13132,7 +13132,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F353" t="n">
@@ -13168,7 +13168,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F354" t="n">
@@ -13204,7 +13204,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F355" t="n">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F356" t="n">
@@ -13276,7 +13276,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F357" t="n">
@@ -13312,7 +13312,7 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F358" t="n">
@@ -13348,7 +13348,7 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F359" t="n">
@@ -13384,7 +13384,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F360" t="n">
@@ -13420,7 +13420,7 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F361" t="n">
@@ -13456,7 +13456,7 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F362" t="n">
@@ -13492,7 +13492,7 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F363" t="n">
@@ -13528,7 +13528,7 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F364" t="n">
@@ -13564,7 +13564,7 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F365" t="n">
@@ -13600,7 +13600,7 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F366" t="n">
@@ -13636,7 +13636,7 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F367" t="n">
@@ -13672,7 +13672,7 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F368" t="n">
@@ -13708,7 +13708,7 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F369" t="n">
@@ -13744,7 +13744,7 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F370" t="n">
@@ -13780,7 +13780,7 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F371" t="n">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F372" t="n">
@@ -13852,7 +13852,7 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F373" t="n">
@@ -13888,7 +13888,7 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F374" t="n">
@@ -13924,7 +13924,7 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F375" t="n">
@@ -13960,7 +13960,7 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F376" t="n">
@@ -13996,7 +13996,7 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F377" t="n">
@@ -14032,7 +14032,7 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F378" t="n">
@@ -14068,7 +14068,7 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F379" t="n">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F380" t="n">
@@ -14140,7 +14140,7 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F381" t="n">
@@ -14176,7 +14176,7 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F382" t="n">
@@ -14212,7 +14212,7 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F383" t="n">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F384" t="n">
@@ -14284,7 +14284,7 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F385" t="n">
@@ -14320,7 +14320,7 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F386" t="n">
@@ -14356,7 +14356,7 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F387" t="n">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F388" t="n">
@@ -14428,7 +14428,7 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F389" t="n">
@@ -14464,7 +14464,7 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F390" t="n">
@@ -14500,7 +14500,7 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F391" t="n">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F392" t="n">
@@ -14572,7 +14572,7 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F393" t="n">
@@ -14608,7 +14608,7 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F394" t="n">
@@ -14644,7 +14644,7 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F395" t="n">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F396" t="n">
@@ -14716,7 +14716,7 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F397" t="n">
@@ -14752,7 +14752,7 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F398" t="n">
@@ -14788,7 +14788,7 @@
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F399" t="n">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F400" t="n">
@@ -14860,7 +14860,7 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F401" t="n">
@@ -14896,7 +14896,7 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F402" t="n">
@@ -14932,7 +14932,7 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F403" t="n">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F404" t="n">
@@ -15004,7 +15004,7 @@
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F405" t="n">
@@ -15040,7 +15040,7 @@
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F406" t="n">
@@ -15076,7 +15076,7 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F407" t="n">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F408" t="n">
@@ -15148,7 +15148,7 @@
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F409" t="n">
@@ -15184,7 +15184,7 @@
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F410" t="n">
@@ -15220,7 +15220,7 @@
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F411" t="n">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F412" t="n">
@@ -15292,7 +15292,7 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F413" t="n">
@@ -15328,7 +15328,7 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F414" t="n">
@@ -15364,7 +15364,7 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F415" t="n">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F416" t="n">
@@ -15436,7 +15436,7 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F417" t="n">
@@ -15472,7 +15472,7 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F418" t="n">
@@ -15508,7 +15508,7 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F419" t="n">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F420" t="n">
@@ -15580,7 +15580,7 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F421" t="n">
@@ -15616,7 +15616,7 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F422" t="n">
@@ -15652,7 +15652,7 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F423" t="n">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F424" t="n">
@@ -15724,7 +15724,7 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F425" t="n">
@@ -15760,7 +15760,7 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F426" t="n">
@@ -15796,7 +15796,7 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F427" t="n">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F428" t="n">
@@ -15868,7 +15868,7 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F429" t="n">
@@ -15904,7 +15904,7 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F430" t="n">
@@ -15940,7 +15940,7 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F431" t="n">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F432" t="n">
@@ -16012,7 +16012,7 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F433" t="n">
@@ -16048,7 +16048,7 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F434" t="n">
@@ -16084,7 +16084,7 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F435" t="n">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F436" t="n">
@@ -16156,7 +16156,7 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F437" t="n">
@@ -16192,7 +16192,7 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F438" t="n">
@@ -16228,7 +16228,7 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F439" t="n">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F440" t="n">
@@ -16300,7 +16300,7 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F441" t="n">
@@ -16336,7 +16336,7 @@
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F442" t="n">
@@ -16372,7 +16372,7 @@
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F443" t="n">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F444" t="n">
@@ -16444,7 +16444,7 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F445" t="n">
@@ -16480,7 +16480,7 @@
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F446" t="n">
@@ -16516,7 +16516,7 @@
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F447" t="n">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F448" t="n">
@@ -16588,7 +16588,7 @@
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F449" t="n">
@@ -16624,7 +16624,7 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F450" t="n">
@@ -16660,7 +16660,7 @@
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F451" t="n">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F452" t="n">
@@ -16732,7 +16732,7 @@
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F453" t="n">
@@ -16768,7 +16768,7 @@
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F454" t="n">
@@ -16804,7 +16804,7 @@
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F455" t="n">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F456" t="n">
@@ -16876,7 +16876,7 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F457" t="n">
@@ -16912,7 +16912,7 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F458" t="n">
@@ -16948,7 +16948,7 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F459" t="n">
@@ -16984,7 +16984,7 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F460" t="n">
@@ -17020,7 +17020,7 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F461" t="n">
@@ -17056,7 +17056,7 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F462" t="n">
@@ -17092,7 +17092,7 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F463" t="n">
@@ -17128,7 +17128,7 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F464" t="n">
@@ -17164,7 +17164,7 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F465" t="n">
@@ -17200,7 +17200,7 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F466" t="n">
@@ -17236,7 +17236,7 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F467" t="n">
@@ -17272,7 +17272,7 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F468" t="n">
@@ -17308,7 +17308,7 @@
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F469" t="n">
@@ -17344,7 +17344,7 @@
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F470" t="n">
@@ -17380,7 +17380,7 @@
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F471" t="n">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F472" t="n">
@@ -17452,7 +17452,7 @@
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F473" t="n">
@@ -17488,7 +17488,7 @@
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F474" t="n">
@@ -17524,7 +17524,7 @@
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F475" t="n">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F476" t="n">
@@ -17596,7 +17596,7 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F477" t="n">
@@ -17632,7 +17632,7 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F478" t="n">
@@ -17668,7 +17668,7 @@
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F479" t="n">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F480" t="n">
@@ -17740,7 +17740,7 @@
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F481" t="n">
@@ -17776,7 +17776,7 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F482" t="n">
@@ -17812,7 +17812,7 @@
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F483" t="n">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F484" t="n">
@@ -17884,7 +17884,7 @@
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F485" t="n">
@@ -17920,7 +17920,7 @@
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F486" t="n">
@@ -17956,7 +17956,7 @@
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F487" t="n">
@@ -17992,7 +17992,7 @@
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F488" t="n">
@@ -18028,7 +18028,7 @@
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F489" t="n">
@@ -18064,7 +18064,7 @@
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F490" t="n">
@@ -18100,7 +18100,7 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F491" t="n">
@@ -18136,7 +18136,7 @@
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F492" t="n">
@@ -18172,7 +18172,7 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F493" t="n">
@@ -18208,7 +18208,7 @@
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F494" t="n">
@@ -18244,7 +18244,7 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F495" t="n">
@@ -18280,7 +18280,7 @@
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F496" t="n">
@@ -18316,7 +18316,7 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F497" t="n">
@@ -18352,7 +18352,7 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F498" t="n">
@@ -18388,7 +18388,7 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F499" t="n">
@@ -18424,7 +18424,7 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F500" t="n">
@@ -18460,7 +18460,7 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F501" t="n">
@@ -18496,7 +18496,7 @@
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F502" t="n">
@@ -18532,7 +18532,7 @@
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F503" t="n">
@@ -18568,7 +18568,7 @@
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F504" t="n">
@@ -18604,7 +18604,7 @@
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F505" t="n">
@@ -18640,7 +18640,7 @@
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F506" t="n">
@@ -18676,7 +18676,7 @@
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F507" t="n">
@@ -18712,7 +18712,7 @@
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F508" t="n">
@@ -18748,7 +18748,7 @@
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F509" t="n">
@@ -18784,7 +18784,7 @@
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F510" t="n">
@@ -18820,7 +18820,7 @@
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F511" t="n">
@@ -18856,7 +18856,7 @@
       </c>
       <c r="E512" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F512" t="n">
@@ -18892,7 +18892,7 @@
       </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F513" t="n">
@@ -18928,7 +18928,7 @@
       </c>
       <c r="E514" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F514" t="n">
@@ -18964,7 +18964,7 @@
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F515" t="n">
@@ -19000,7 +19000,7 @@
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F516" t="n">
@@ -19036,7 +19036,7 @@
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F517" t="n">
@@ -19072,7 +19072,7 @@
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F518" t="n">
@@ -19108,7 +19108,7 @@
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F519" t="n">
@@ -19144,7 +19144,7 @@
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F520" t="n">
@@ -19180,7 +19180,7 @@
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F521" t="n">
@@ -19216,7 +19216,7 @@
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F522" t="n">
@@ -19252,7 +19252,7 @@
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F523" t="n">
@@ -19288,7 +19288,7 @@
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F524" t="n">
@@ -19324,7 +19324,7 @@
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F525" t="n">
@@ -19360,7 +19360,7 @@
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F526" t="n">
@@ -19396,7 +19396,7 @@
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F527" t="n">
@@ -19432,7 +19432,7 @@
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F528" t="n">
@@ -19468,7 +19468,7 @@
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F529" t="n">
@@ -19504,7 +19504,7 @@
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F530" t="n">
@@ -19540,7 +19540,7 @@
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F531" t="n">
@@ -19576,7 +19576,7 @@
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F532" t="n">
@@ -19612,7 +19612,7 @@
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F533" t="n">
@@ -19648,7 +19648,7 @@
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F534" t="n">
@@ -19684,7 +19684,7 @@
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F535" t="n">
@@ -19720,7 +19720,7 @@
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F536" t="n">
@@ -19756,7 +19756,7 @@
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F537" t="n">
@@ -19792,7 +19792,7 @@
       </c>
       <c r="E538" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F538" t="n">
@@ -19828,7 +19828,7 @@
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F539" t="n">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F540" t="n">
@@ -19900,7 +19900,7 @@
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F541" t="n">
@@ -19936,7 +19936,7 @@
       </c>
       <c r="E542" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F542" t="n">
@@ -19972,7 +19972,7 @@
       </c>
       <c r="E543" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F543" t="n">
@@ -20008,7 +20008,7 @@
       </c>
       <c r="E544" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F544" t="n">
@@ -20044,7 +20044,7 @@
       </c>
       <c r="E545" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F545" t="n">
@@ -20080,7 +20080,7 @@
       </c>
       <c r="E546" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F546" t="n">
@@ -20116,7 +20116,7 @@
       </c>
       <c r="E547" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F547" t="n">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="E548" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F548" t="n">
@@ -20188,7 +20188,7 @@
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F549" t="n">
@@ -20224,7 +20224,7 @@
       </c>
       <c r="E550" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F550" t="n">
@@ -20260,7 +20260,7 @@
       </c>
       <c r="E551" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F551" t="n">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="E552" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F552" t="n">
@@ -20332,7 +20332,7 @@
       </c>
       <c r="E553" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F553" t="n">
@@ -20368,7 +20368,7 @@
       </c>
       <c r="E554" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F554" t="n">
@@ -20404,7 +20404,7 @@
       </c>
       <c r="E555" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F555" t="n">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F556" t="n">
@@ -20476,7 +20476,7 @@
       </c>
       <c r="E557" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F557" t="n">
@@ -20512,7 +20512,7 @@
       </c>
       <c r="E558" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F558" t="n">
@@ -20548,7 +20548,7 @@
       </c>
       <c r="E559" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F559" t="n">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="E560" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F560" t="n">
@@ -20620,7 +20620,7 @@
       </c>
       <c r="E561" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F561" t="n">
@@ -20656,7 +20656,7 @@
       </c>
       <c r="E562" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F562" t="n">
@@ -20692,7 +20692,7 @@
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F563" t="n">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="E564" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F564" t="n">
@@ -20764,7 +20764,7 @@
       </c>
       <c r="E565" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F565" t="n">
@@ -20800,7 +20800,7 @@
       </c>
       <c r="E566" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F566" t="n">
@@ -20836,7 +20836,7 @@
       </c>
       <c r="E567" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F567" t="n">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="E568" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F568" t="n">
@@ -20908,7 +20908,7 @@
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F569" t="n">
@@ -20944,7 +20944,7 @@
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F570" t="n">
@@ -20980,7 +20980,7 @@
       </c>
       <c r="E571" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F571" t="n">
@@ -21016,7 +21016,7 @@
       </c>
       <c r="E572" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F572" t="n">
@@ -21052,7 +21052,7 @@
       </c>
       <c r="E573" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F573" t="n">
@@ -21088,7 +21088,7 @@
       </c>
       <c r="E574" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F574" t="n">
@@ -21124,7 +21124,7 @@
       </c>
       <c r="E575" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F575" t="n">
@@ -21160,7 +21160,7 @@
       </c>
       <c r="E576" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F576" t="n">
@@ -21196,7 +21196,7 @@
       </c>
       <c r="E577" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F577" t="n">
@@ -21232,7 +21232,7 @@
       </c>
       <c r="E578" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F578" t="n">
@@ -21268,7 +21268,7 @@
       </c>
       <c r="E579" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F579" t="n">
@@ -21304,7 +21304,7 @@
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F580" t="n">
@@ -21340,7 +21340,7 @@
       </c>
       <c r="E581" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F581" t="n">
@@ -21376,7 +21376,7 @@
       </c>
       <c r="E582" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F582" t="n">
@@ -21412,7 +21412,7 @@
       </c>
       <c r="E583" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F583" t="n">
@@ -21448,7 +21448,7 @@
       </c>
       <c r="E584" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F584" t="n">
@@ -21484,7 +21484,7 @@
       </c>
       <c r="E585" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F585" t="n">
@@ -21520,7 +21520,7 @@
       </c>
       <c r="E586" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F586" t="n">
@@ -21556,7 +21556,7 @@
       </c>
       <c r="E587" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F587" t="n">
@@ -21592,7 +21592,7 @@
       </c>
       <c r="E588" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F588" t="n">
@@ -21628,7 +21628,7 @@
       </c>
       <c r="E589" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F589" t="n">
@@ -21664,7 +21664,7 @@
       </c>
       <c r="E590" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F590" t="n">
@@ -21700,7 +21700,7 @@
       </c>
       <c r="E591" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F591" t="n">
@@ -21736,7 +21736,7 @@
       </c>
       <c r="E592" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F592" t="n">
@@ -21772,7 +21772,7 @@
       </c>
       <c r="E593" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F593" t="n">
@@ -21808,7 +21808,7 @@
       </c>
       <c r="E594" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F594" t="n">
@@ -21844,7 +21844,7 @@
       </c>
       <c r="E595" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F595" t="n">
@@ -21880,7 +21880,7 @@
       </c>
       <c r="E596" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F596" t="n">
@@ -21916,7 +21916,7 @@
       </c>
       <c r="E597" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F597" t="n">
@@ -21952,7 +21952,7 @@
       </c>
       <c r="E598" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F598" t="n">
@@ -21988,7 +21988,7 @@
       </c>
       <c r="E599" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F599" t="n">
@@ -22024,7 +22024,7 @@
       </c>
       <c r="E600" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F600" t="n">
@@ -22060,7 +22060,7 @@
       </c>
       <c r="E601" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F601" t="n">
@@ -22096,7 +22096,7 @@
       </c>
       <c r="E602" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F602" t="n">
@@ -22132,7 +22132,7 @@
       </c>
       <c r="E603" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F603" t="n">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="E604" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F604" t="n">
@@ -22204,7 +22204,7 @@
       </c>
       <c r="E605" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F605" t="n">
@@ -22240,7 +22240,7 @@
       </c>
       <c r="E606" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F606" t="n">
@@ -22276,7 +22276,7 @@
       </c>
       <c r="E607" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F607" t="n">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="E608" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F608" t="n">
@@ -22348,7 +22348,7 @@
       </c>
       <c r="E609" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F609" t="n">
@@ -22384,7 +22384,7 @@
       </c>
       <c r="E610" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F610" t="n">
@@ -22420,7 +22420,7 @@
       </c>
       <c r="E611" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F611" t="n">
@@ -22456,7 +22456,7 @@
       </c>
       <c r="E612" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F612" t="n">
@@ -22492,7 +22492,7 @@
       </c>
       <c r="E613" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F613" t="n">
@@ -22528,7 +22528,7 @@
       </c>
       <c r="E614" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F614" t="n">
@@ -22564,7 +22564,7 @@
       </c>
       <c r="E615" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F615" t="n">
@@ -22600,7 +22600,7 @@
       </c>
       <c r="E616" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F616" t="n">
@@ -22636,7 +22636,7 @@
       </c>
       <c r="E617" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F617" t="n">
@@ -22672,7 +22672,7 @@
       </c>
       <c r="E618" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F618" t="n">
@@ -22708,7 +22708,7 @@
       </c>
       <c r="E619" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F619" t="n">
@@ -22744,7 +22744,7 @@
       </c>
       <c r="E620" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F620" t="n">
@@ -22780,7 +22780,7 @@
       </c>
       <c r="E621" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F621" t="n">
@@ -22816,7 +22816,7 @@
       </c>
       <c r="E622" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F622" t="n">
@@ -22852,7 +22852,7 @@
       </c>
       <c r="E623" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F623" t="n">
@@ -22888,7 +22888,7 @@
       </c>
       <c r="E624" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F624" t="n">
@@ -22924,7 +22924,7 @@
       </c>
       <c r="E625" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F625" t="n">
@@ -22960,7 +22960,7 @@
       </c>
       <c r="E626" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F626" t="n">
@@ -22996,7 +22996,7 @@
       </c>
       <c r="E627" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F627" t="n">
@@ -23032,7 +23032,7 @@
       </c>
       <c r="E628" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F628" t="n">
@@ -23068,7 +23068,7 @@
       </c>
       <c r="E629" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F629" t="n">
@@ -23104,7 +23104,7 @@
       </c>
       <c r="E630" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F630" t="n">
@@ -23140,7 +23140,7 @@
       </c>
       <c r="E631" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F631" t="n">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="E632" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F632" t="n">
@@ -23212,7 +23212,7 @@
       </c>
       <c r="E633" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F633" t="n">
@@ -23248,7 +23248,7 @@
       </c>
       <c r="E634" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F634" t="n">
@@ -23284,7 +23284,7 @@
       </c>
       <c r="E635" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F635" t="n">
@@ -23320,7 +23320,7 @@
       </c>
       <c r="E636" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F636" t="n">
@@ -23356,7 +23356,7 @@
       </c>
       <c r="E637" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F637" t="n">
@@ -23392,7 +23392,7 @@
       </c>
       <c r="E638" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F638" t="n">
@@ -23428,7 +23428,7 @@
       </c>
       <c r="E639" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F639" t="n">
@@ -23464,7 +23464,7 @@
       </c>
       <c r="E640" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F640" t="n">
@@ -23500,7 +23500,7 @@
       </c>
       <c r="E641" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F641" t="n">
@@ -23536,7 +23536,7 @@
       </c>
       <c r="E642" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F642" t="n">
@@ -23572,7 +23572,7 @@
       </c>
       <c r="E643" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F643" t="n">
@@ -23608,7 +23608,7 @@
       </c>
       <c r="E644" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F644" t="n">
@@ -23644,7 +23644,7 @@
       </c>
       <c r="E645" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F645" t="n">
@@ -23680,7 +23680,7 @@
       </c>
       <c r="E646" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F646" t="n">
@@ -23716,7 +23716,7 @@
       </c>
       <c r="E647" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F647" t="n">
@@ -23752,7 +23752,7 @@
       </c>
       <c r="E648" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F648" t="n">
@@ -23788,7 +23788,7 @@
       </c>
       <c r="E649" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F649" t="n">
@@ -23824,7 +23824,7 @@
       </c>
       <c r="E650" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F650" t="n">
@@ -23860,7 +23860,7 @@
       </c>
       <c r="E651" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F651" t="n">
@@ -23896,7 +23896,7 @@
       </c>
       <c r="E652" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F652" t="n">
@@ -23932,7 +23932,7 @@
       </c>
       <c r="E653" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F653" t="n">
@@ -23968,7 +23968,7 @@
       </c>
       <c r="E654" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F654" t="n">
@@ -24004,7 +24004,7 @@
       </c>
       <c r="E655" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F655" t="n">
@@ -24040,7 +24040,7 @@
       </c>
       <c r="E656" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F656" t="n">
@@ -24076,7 +24076,7 @@
       </c>
       <c r="E657" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F657" t="n">
@@ -24112,7 +24112,7 @@
       </c>
       <c r="E658" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F658" t="n">
@@ -24148,7 +24148,7 @@
       </c>
       <c r="E659" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F659" t="n">
@@ -24184,7 +24184,7 @@
       </c>
       <c r="E660" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F660" t="n">
@@ -24220,7 +24220,7 @@
       </c>
       <c r="E661" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F661" t="n">
@@ -24256,7 +24256,7 @@
       </c>
       <c r="E662" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F662" t="n">
@@ -24292,7 +24292,7 @@
       </c>
       <c r="E663" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F663" t="n">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="E664" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F664" t="n">
@@ -24364,7 +24364,7 @@
       </c>
       <c r="E665" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F665" t="n">
@@ -24400,7 +24400,7 @@
       </c>
       <c r="E666" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F666" t="n">
@@ -24436,7 +24436,7 @@
       </c>
       <c r="E667" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F667" t="n">
@@ -24472,7 +24472,7 @@
       </c>
       <c r="E668" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F668" t="n">
@@ -24508,7 +24508,7 @@
       </c>
       <c r="E669" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F669" t="n">
@@ -24544,7 +24544,7 @@
       </c>
       <c r="E670" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F670" t="n">
@@ -24580,7 +24580,7 @@
       </c>
       <c r="E671" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F671" t="n">
@@ -24616,7 +24616,7 @@
       </c>
       <c r="E672" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F672" t="n">
@@ -24652,7 +24652,7 @@
       </c>
       <c r="E673" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F673" t="n">
@@ -24688,7 +24688,7 @@
       </c>
       <c r="E674" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F674" t="n">
@@ -24724,7 +24724,7 @@
       </c>
       <c r="E675" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F675" t="n">
@@ -24760,7 +24760,7 @@
       </c>
       <c r="E676" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F676" t="n">
@@ -24796,7 +24796,7 @@
       </c>
       <c r="E677" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F677" t="n">
@@ -24832,7 +24832,7 @@
       </c>
       <c r="E678" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F678" t="n">
@@ -24868,7 +24868,7 @@
       </c>
       <c r="E679" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F679" t="n">
@@ -24904,7 +24904,7 @@
       </c>
       <c r="E680" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F680" t="n">
@@ -24940,7 +24940,7 @@
       </c>
       <c r="E681" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F681" t="n">
@@ -24976,7 +24976,7 @@
       </c>
       <c r="E682" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F682" t="n">
@@ -25012,7 +25012,7 @@
       </c>
       <c r="E683" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F683" t="n">
@@ -25048,7 +25048,7 @@
       </c>
       <c r="E684" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F684" t="n">
@@ -25084,7 +25084,7 @@
       </c>
       <c r="E685" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F685" t="n">
@@ -25120,7 +25120,7 @@
       </c>
       <c r="E686" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F686" t="n">
@@ -25156,7 +25156,7 @@
       </c>
       <c r="E687" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F687" t="n">
@@ -25192,7 +25192,7 @@
       </c>
       <c r="E688" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F688" t="n">
@@ -25228,7 +25228,7 @@
       </c>
       <c r="E689" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F689" t="n">
@@ -25264,7 +25264,7 @@
       </c>
       <c r="E690" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F690" t="n">
@@ -25300,7 +25300,7 @@
       </c>
       <c r="E691" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F691" t="n">
@@ -25336,7 +25336,7 @@
       </c>
       <c r="E692" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F692" t="n">
@@ -25372,7 +25372,7 @@
       </c>
       <c r="E693" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F693" t="n">
@@ -25408,7 +25408,7 @@
       </c>
       <c r="E694" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F694" t="n">
@@ -25444,7 +25444,7 @@
       </c>
       <c r="E695" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F695" t="n">
@@ -25480,7 +25480,7 @@
       </c>
       <c r="E696" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F696" t="n">
@@ -25516,7 +25516,7 @@
       </c>
       <c r="E697" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F697" t="n">
@@ -25552,7 +25552,7 @@
       </c>
       <c r="E698" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F698" t="n">
@@ -25588,7 +25588,7 @@
       </c>
       <c r="E699" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F699" t="n">
@@ -25624,7 +25624,7 @@
       </c>
       <c r="E700" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F700" t="n">
@@ -25660,7 +25660,7 @@
       </c>
       <c r="E701" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F701" t="n">
@@ -25696,7 +25696,7 @@
       </c>
       <c r="E702" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F702" t="n">
@@ -25732,7 +25732,7 @@
       </c>
       <c r="E703" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F703" t="n">
@@ -25768,7 +25768,7 @@
       </c>
       <c r="E704" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F704" t="n">
@@ -25804,7 +25804,7 @@
       </c>
       <c r="E705" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F705" t="n">
@@ -25840,7 +25840,7 @@
       </c>
       <c r="E706" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F706" t="n">
@@ -25876,7 +25876,7 @@
       </c>
       <c r="E707" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F707" t="n">
@@ -25912,7 +25912,7 @@
       </c>
       <c r="E708" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F708" t="n">
@@ -25948,7 +25948,7 @@
       </c>
       <c r="E709" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F709" t="n">
@@ -25984,7 +25984,7 @@
       </c>
       <c r="E710" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F710" t="n">
@@ -26020,7 +26020,7 @@
       </c>
       <c r="E711" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F711" t="n">
@@ -26056,7 +26056,7 @@
       </c>
       <c r="E712" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F712" t="n">
@@ -26092,7 +26092,7 @@
       </c>
       <c r="E713" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F713" t="n">
@@ -26128,7 +26128,7 @@
       </c>
       <c r="E714" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F714" t="n">
@@ -26164,7 +26164,7 @@
       </c>
       <c r="E715" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F715" t="n">
@@ -26200,7 +26200,7 @@
       </c>
       <c r="E716" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F716" t="n">
@@ -26236,7 +26236,7 @@
       </c>
       <c r="E717" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F717" t="n">
@@ -26272,7 +26272,7 @@
       </c>
       <c r="E718" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F718" t="n">
@@ -26308,7 +26308,7 @@
       </c>
       <c r="E719" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F719" t="n">
@@ -26344,7 +26344,7 @@
       </c>
       <c r="E720" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F720" t="n">
@@ -26380,7 +26380,7 @@
       </c>
       <c r="E721" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F721" t="n">
@@ -26416,7 +26416,7 @@
       </c>
       <c r="E722" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F722" t="n">
@@ -26452,7 +26452,7 @@
       </c>
       <c r="E723" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F723" t="n">
@@ -26488,7 +26488,7 @@
       </c>
       <c r="E724" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F724" t="n">
@@ -26524,7 +26524,7 @@
       </c>
       <c r="E725" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F725" t="n">
@@ -26560,7 +26560,7 @@
       </c>
       <c r="E726" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F726" t="n">
@@ -26596,7 +26596,7 @@
       </c>
       <c r="E727" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F727" t="n">
@@ -26632,7 +26632,7 @@
       </c>
       <c r="E728" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F728" t="n">
@@ -26668,7 +26668,7 @@
       </c>
       <c r="E729" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F729" t="n">
@@ -26704,7 +26704,7 @@
       </c>
       <c r="E730" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F730" t="n">
@@ -26740,7 +26740,7 @@
       </c>
       <c r="E731" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F731" t="n">
@@ -26776,7 +26776,7 @@
       </c>
       <c r="E732" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F732" t="n">
@@ -26812,7 +26812,7 @@
       </c>
       <c r="E733" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F733" t="n">
@@ -26848,7 +26848,7 @@
       </c>
       <c r="E734" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F734" t="n">
@@ -26884,7 +26884,7 @@
       </c>
       <c r="E735" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F735" t="n">
@@ -26920,7 +26920,7 @@
       </c>
       <c r="E736" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F736" t="n">
@@ -26956,7 +26956,7 @@
       </c>
       <c r="E737" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F737" t="n">
@@ -26992,7 +26992,7 @@
       </c>
       <c r="E738" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F738" t="n">
@@ -27028,7 +27028,7 @@
       </c>
       <c r="E739" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F739" t="n">
@@ -27064,7 +27064,7 @@
       </c>
       <c r="E740" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F740" t="n">
@@ -27100,7 +27100,7 @@
       </c>
       <c r="E741" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F741" t="n">
@@ -27136,7 +27136,7 @@
       </c>
       <c r="E742" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F742" t="n">
@@ -27172,7 +27172,7 @@
       </c>
       <c r="E743" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F743" t="n">
@@ -27208,7 +27208,7 @@
       </c>
       <c r="E744" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F744" t="n">
@@ -27244,7 +27244,7 @@
       </c>
       <c r="E745" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F745" t="n">
@@ -27280,7 +27280,7 @@
       </c>
       <c r="E746" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F746" t="n">
@@ -27316,7 +27316,7 @@
       </c>
       <c r="E747" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F747" t="n">
@@ -27352,7 +27352,7 @@
       </c>
       <c r="E748" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F748" t="n">
@@ -27388,7 +27388,7 @@
       </c>
       <c r="E749" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F749" t="n">
@@ -27424,7 +27424,7 @@
       </c>
       <c r="E750" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F750" t="n">
@@ -27460,7 +27460,7 @@
       </c>
       <c r="E751" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F751" t="n">
@@ -27496,7 +27496,7 @@
       </c>
       <c r="E752" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F752" t="n">
@@ -27532,7 +27532,7 @@
       </c>
       <c r="E753" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F753" t="n">
@@ -27568,7 +27568,7 @@
       </c>
       <c r="E754" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F754" t="n">
@@ -27604,7 +27604,7 @@
       </c>
       <c r="E755" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F755" t="n">
@@ -27640,7 +27640,7 @@
       </c>
       <c r="E756" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F756" t="n">
@@ -27676,7 +27676,7 @@
       </c>
       <c r="E757" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F757" t="n">
@@ -27712,7 +27712,7 @@
       </c>
       <c r="E758" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F758" t="n">
@@ -27748,7 +27748,7 @@
       </c>
       <c r="E759" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F759" t="n">
@@ -27784,7 +27784,7 @@
       </c>
       <c r="E760" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F760" t="n">
@@ -27820,7 +27820,7 @@
       </c>
       <c r="E761" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F761" t="n">
@@ -27856,7 +27856,7 @@
       </c>
       <c r="E762" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F762" t="n">
@@ -27892,7 +27892,7 @@
       </c>
       <c r="E763" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F763" t="n">
@@ -27928,7 +27928,7 @@
       </c>
       <c r="E764" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F764" t="n">
@@ -27964,7 +27964,7 @@
       </c>
       <c r="E765" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F765" t="n">
@@ -28000,7 +28000,7 @@
       </c>
       <c r="E766" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F766" t="n">
@@ -28036,7 +28036,7 @@
       </c>
       <c r="E767" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F767" t="n">
@@ -28072,7 +28072,7 @@
       </c>
       <c r="E768" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F768" t="n">
@@ -28108,7 +28108,7 @@
       </c>
       <c r="E769" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F769" t="n">
@@ -28144,7 +28144,7 @@
       </c>
       <c r="E770" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F770" t="n">
@@ -28180,7 +28180,7 @@
       </c>
       <c r="E771" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F771" t="n">
@@ -28216,7 +28216,7 @@
       </c>
       <c r="E772" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F772" t="n">
@@ -28252,7 +28252,7 @@
       </c>
       <c r="E773" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F773" t="n">
@@ -28288,7 +28288,7 @@
       </c>
       <c r="E774" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F774" t="n">
@@ -28324,7 +28324,7 @@
       </c>
       <c r="E775" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F775" t="n">
@@ -28360,7 +28360,7 @@
       </c>
       <c r="E776" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F776" t="n">
@@ -28396,7 +28396,7 @@
       </c>
       <c r="E777" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F777" t="n">
@@ -28432,7 +28432,7 @@
       </c>
       <c r="E778" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F778" t="n">
@@ -28468,7 +28468,7 @@
       </c>
       <c r="E779" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F779" t="n">
@@ -28504,7 +28504,7 @@
       </c>
       <c r="E780" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F780" t="n">
@@ -28540,7 +28540,7 @@
       </c>
       <c r="E781" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F781" t="n">
@@ -28576,7 +28576,7 @@
       </c>
       <c r="E782" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F782" t="n">
@@ -28612,7 +28612,7 @@
       </c>
       <c r="E783" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F783" t="n">
@@ -28648,7 +28648,7 @@
       </c>
       <c r="E784" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F784" t="n">
@@ -28684,7 +28684,7 @@
       </c>
       <c r="E785" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F785" t="n">
@@ -28720,7 +28720,7 @@
       </c>
       <c r="E786" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F786" t="n">
@@ -28756,7 +28756,7 @@
       </c>
       <c r="E787" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F787" t="n">
@@ -28792,7 +28792,7 @@
       </c>
       <c r="E788" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F788" t="n">
@@ -28828,7 +28828,7 @@
       </c>
       <c r="E789" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F789" t="n">
@@ -28864,7 +28864,7 @@
       </c>
       <c r="E790" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F790" t="n">
@@ -28900,7 +28900,7 @@
       </c>
       <c r="E791" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F791" t="n">
@@ -28936,7 +28936,7 @@
       </c>
       <c r="E792" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F792" t="n">
@@ -28972,7 +28972,7 @@
       </c>
       <c r="E793" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F793" t="n">
@@ -29008,7 +29008,7 @@
       </c>
       <c r="E794" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F794" t="n">
@@ -29044,7 +29044,7 @@
       </c>
       <c r="E795" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F795" t="n">
@@ -29080,7 +29080,7 @@
       </c>
       <c r="E796" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F796" t="n">
@@ -29116,7 +29116,7 @@
       </c>
       <c r="E797" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F797" t="n">
@@ -29152,7 +29152,7 @@
       </c>
       <c r="E798" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F798" t="n">
@@ -29188,7 +29188,7 @@
       </c>
       <c r="E799" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F799" t="n">
@@ -29224,7 +29224,7 @@
       </c>
       <c r="E800" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F800" t="n">
@@ -29260,7 +29260,7 @@
       </c>
       <c r="E801" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F801" t="n">
@@ -29296,7 +29296,7 @@
       </c>
       <c r="E802" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F802" t="n">
@@ -29332,7 +29332,7 @@
       </c>
       <c r="E803" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F803" t="n">
@@ -29368,7 +29368,7 @@
       </c>
       <c r="E804" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F804" t="n">
@@ -29404,7 +29404,7 @@
       </c>
       <c r="E805" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F805" t="n">
@@ -29440,7 +29440,7 @@
       </c>
       <c r="E806" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F806" t="n">
@@ -29476,7 +29476,7 @@
       </c>
       <c r="E807" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F807" t="n">
@@ -29512,7 +29512,7 @@
       </c>
       <c r="E808" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F808" t="n">
@@ -29548,7 +29548,7 @@
       </c>
       <c r="E809" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F809" t="n">
@@ -29584,7 +29584,7 @@
       </c>
       <c r="E810" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F810" t="n">
@@ -29620,7 +29620,7 @@
       </c>
       <c r="E811" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F811" t="n">
@@ -29656,7 +29656,7 @@
       </c>
       <c r="E812" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F812" t="n">
@@ -29692,7 +29692,7 @@
       </c>
       <c r="E813" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F813" t="n">
@@ -29728,7 +29728,7 @@
       </c>
       <c r="E814" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F814" t="n">
@@ -29764,7 +29764,7 @@
       </c>
       <c r="E815" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F815" t="n">
@@ -29800,7 +29800,7 @@
       </c>
       <c r="E816" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F816" t="n">
@@ -29836,7 +29836,7 @@
       </c>
       <c r="E817" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F817" t="n">
@@ -29872,7 +29872,7 @@
       </c>
       <c r="E818" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F818" t="n">
@@ -29908,7 +29908,7 @@
       </c>
       <c r="E819" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F819" t="n">
@@ -29944,7 +29944,7 @@
       </c>
       <c r="E820" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F820" t="n">
@@ -29980,7 +29980,7 @@
       </c>
       <c r="E821" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F821" t="n">
@@ -30016,7 +30016,7 @@
       </c>
       <c r="E822" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F822" t="n">
@@ -30052,7 +30052,7 @@
       </c>
       <c r="E823" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F823" t="n">
@@ -30088,7 +30088,7 @@
       </c>
       <c r="E824" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F824" t="n">
@@ -30124,7 +30124,7 @@
       </c>
       <c r="E825" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F825" t="n">
@@ -30160,7 +30160,7 @@
       </c>
       <c r="E826" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F826" t="n">
@@ -30196,7 +30196,7 @@
       </c>
       <c r="E827" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F827" t="n">
@@ -30232,7 +30232,7 @@
       </c>
       <c r="E828" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F828" t="n">
@@ -30268,7 +30268,7 @@
       </c>
       <c r="E829" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F829" t="n">
@@ -30304,7 +30304,7 @@
       </c>
       <c r="E830" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F830" t="n">
@@ -30340,7 +30340,7 @@
       </c>
       <c r="E831" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F831" t="n">
@@ -30376,7 +30376,7 @@
       </c>
       <c r="E832" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F832" t="n">
@@ -30412,7 +30412,7 @@
       </c>
       <c r="E833" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F833" t="n">
@@ -30448,7 +30448,7 @@
       </c>
       <c r="E834" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F834" t="n">
@@ -30484,7 +30484,7 @@
       </c>
       <c r="E835" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F835" t="n">
@@ -30520,7 +30520,7 @@
       </c>
       <c r="E836" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F836" t="n">
@@ -30556,7 +30556,7 @@
       </c>
       <c r="E837" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F837" t="n">
@@ -30592,7 +30592,7 @@
       </c>
       <c r="E838" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F838" t="n">
@@ -30628,7 +30628,7 @@
       </c>
       <c r="E839" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F839" t="n">
@@ -30664,7 +30664,7 @@
       </c>
       <c r="E840" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F840" t="n">
@@ -30700,7 +30700,7 @@
       </c>
       <c r="E841" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F841" t="n">
